--- a/MCET0220/MCET220_Final_2211-1.xlsx
+++ b/MCET0220/MCET220_Final_2211-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -282,6 +282,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α</t>
+  </si>
+  <si>
     <t xml:space="preserve">Determine the force acting on member BD and reaction forces at C.  Report magnitude and direction.</t>
   </si>
   <si>
@@ -350,13 +356,22 @@
     <t xml:space="preserve">Location of Resultant Force</t>
   </si>
   <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
     <t xml:space="preserve">FBD =</t>
   </si>
   <si>
+    <t xml:space="preserve">I called it FB on my FBD and equations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Theta BD =</t>
   </si>
   <si>
     <t xml:space="preserve">Cx =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I drew it in the wrong direction on the FBD</t>
   </si>
   <si>
     <t xml:space="preserve">Cy =</t>
@@ -817,7 +832,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -885,6 +900,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TeXGyreHeros"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1030,7 +1061,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1139,11 +1170,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1187,7 +1230,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1267,7 +1310,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1275,7 +1318,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1283,7 +1326,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1807,13 +1850,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>412920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1826,8 +1869,82 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="745560" y="387000"/>
-          <a:ext cx="6738840" cy="3501000"/>
+          <a:off x="745560" y="387360"/>
+          <a:ext cx="6739200" cy="3501000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106560</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="421560" y="7784280"/>
+          <a:ext cx="2492640" cy="2122560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503280</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7569000" y="9629280"/>
+          <a:ext cx="4028040" cy="3523320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1859,7 +1976,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="14" name="Picture 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1901,7 +2018,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="15" name="Picture 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1943,7 +2060,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="16" name="Picture 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1985,7 +2102,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="image3.jpg" descr=""/>
+        <xdr:cNvPr id="17" name="image3.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2023,7 +2140,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image2.jpg" descr=""/>
+        <xdr:cNvPr id="18" name="image2.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2061,7 +2178,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="image4.jpg" descr=""/>
+        <xdr:cNvPr id="19" name="image4.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2099,7 +2216,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image1.jpg" descr=""/>
+        <xdr:cNvPr id="20" name="image1.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2142,7 +2259,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 28" descr=""/>
+        <xdr:cNvPr id="21" name="Picture 28" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2179,7 +2296,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 30" descr=""/>
+        <xdr:cNvPr id="22" name="Picture 30" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2238,7 +2355,7 @@
   </sheetPr>
   <dimension ref="C1:Z93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G89" activeCellId="0" sqref="G89"/>
     </sheetView>
   </sheetViews>
@@ -3964,8 +4081,8 @@
   </sheetPr>
   <dimension ref="C1:V62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4227,9 +4344,15 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4238,10 +4361,17 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">DEGREES(ATAN(0.8/1.7))</f>
+        <v>25.2011236454751</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4394,9 +4524,9 @@
     </row>
     <row r="32" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="D32" s="29"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4408,9 +4538,9 @@
     </row>
     <row r="33" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="D33" s="29"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4422,7 +4552,7 @@
     </row>
     <row r="34" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="13"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4434,7 +4564,7 @@
     </row>
     <row r="35" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="13"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4446,7 +4576,7 @@
     </row>
     <row r="36" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="13"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4458,7 +4588,7 @@
     </row>
     <row r="37" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="13"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4470,7 +4600,7 @@
     </row>
     <row r="38" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="13"/>
-      <c r="D38" s="27"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4482,7 +4612,7 @@
     </row>
     <row r="39" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="13"/>
-      <c r="D39" s="27"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4494,7 +4624,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="13"/>
-      <c r="D40" s="27"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4506,7 +4636,7 @@
     </row>
     <row r="41" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="13"/>
-      <c r="D41" s="27"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4518,7 +4648,7 @@
     </row>
     <row r="42" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="13"/>
-      <c r="D42" s="27"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4530,7 +4660,7 @@
     </row>
     <row r="43" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="13"/>
-      <c r="D43" s="27"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4542,7 +4672,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -4642,12 +4772,12 @@
       <c r="C52" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -4663,123 +4793,168 @@
         <v>6</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="D54" s="19" t="n">
+        <f aca="false">D19</f>
+        <v>200</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="D55" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="D56" s="19" t="n">
+        <f aca="false">2*D19/(1.7*SIN(RADIANS(D20)))</f>
+        <v>552.596889060469</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="D57" s="19" t="n">
+        <f aca="false">D20</f>
+        <v>25.2011236454751</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="D58" s="19" t="n">
+        <f aca="false">-D56*COS(RADIANS(D57))</f>
+        <v>-500</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="D59" s="19" t="n">
+        <f aca="false">D19 - D56*SIN(RADIANS(D57))</f>
+        <v>-35.2941176470588</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="D60" s="19" t="n">
+        <f aca="false">SQRT(D58^2 + D59^2)</f>
+        <v>501.244126888769</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="D61" s="19" t="n">
+        <f aca="false">DEGREES(ATAN(D59/D58))</f>
+        <v>4.03771062097713</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -4789,9 +4964,9 @@
       <c r="D62" s="25"/>
       <c r="E62" s="26"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4830,7 +5005,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -5046,7 +5221,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5113,7 +5288,7 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="5"/>
@@ -5128,7 +5303,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -5142,7 +5317,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="13"/>
-      <c r="D24" s="27"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5154,7 +5329,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="13"/>
-      <c r="D25" s="27"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5166,7 +5341,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="13"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -5178,7 +5353,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="13"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5190,7 +5365,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="13"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -5202,7 +5377,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="13"/>
-      <c r="D29" s="27"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -5214,7 +5389,7 @@
     </row>
     <row r="30" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="13"/>
-      <c r="D30" s="27"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -5226,7 +5401,7 @@
     </row>
     <row r="31" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="13"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -5238,7 +5413,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="13"/>
-      <c r="D32" s="27"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -5250,7 +5425,7 @@
     </row>
     <row r="33" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="13"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -5262,7 +5437,7 @@
     </row>
     <row r="34" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="13"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -5274,7 +5449,7 @@
     </row>
     <row r="35" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="13"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -5286,7 +5461,7 @@
     </row>
     <row r="36" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="13"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -5298,7 +5473,7 @@
     </row>
     <row r="37" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="13"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -5309,10 +5484,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="27"/>
+      <c r="C38" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="29"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -5322,27 +5497,27 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" s="31" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="32"/>
-      <c r="D39" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+    <row r="39" s="34" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="35"/>
+      <c r="D39" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -5356,7 +5531,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -5370,7 +5545,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -5384,7 +5559,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -5398,7 +5573,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -5412,7 +5587,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -5426,7 +5601,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -5452,9 +5627,9 @@
     </row>
     <row r="48" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="D48" s="29"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -5466,28 +5641,28 @@
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -5500,709 +5675,709 @@
         <v>30</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="34"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="28"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="16"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="28"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="28"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="16"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="28"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="36"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="28"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="28"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="28"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="28"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="28"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
     </row>
     <row r="74" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="28"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-    </row>
-    <row r="75" s="31" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="40"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+    </row>
+    <row r="75" s="34" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="43"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="28"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="28"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="28"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="28"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="28"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="28"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="28"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="28" t="s">
-        <v>73</v>
+      <c r="C85" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D85" s="26"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="28" t="s">
-        <v>74</v>
+      <c r="C86" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="D86" s="26"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="28"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="26"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="28"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="26"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="28"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="26"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="28"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="26"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="28"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="26"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="28"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="26"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="28"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="26"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="28"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="26"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="28"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="26"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="28"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="26"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="28"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="26"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="28"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="26"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="34" t="s">
-        <v>75</v>
+      <c r="C99" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="D99" s="26"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
+      <c r="C101" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="49"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
+      <c r="C102" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" s="53"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="50"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="51"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
+      <c r="C103" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="53"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" s="50"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="51"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
+      <c r="C104" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="53"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="50"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
+      <c r="C105" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="53"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="52"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="55"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
+      <c r="C106" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="55"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="58"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="28"/>
+      <c r="C107" s="30"/>
       <c r="D107" s="26"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="18" t="s">
@@ -6214,109 +6389,109 @@
       <c r="E108" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D109" s="21"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D110" s="21"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="32"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
+        <v>84</v>
+      </c>
+      <c r="D111" s="35"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D112" s="21"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30"/>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D113" s="21"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="28"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="D114" s="59"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="16"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="28"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6351,7 +6526,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6638,7 +6813,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11"/>
@@ -6672,70 +6847,70 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="57" t="s">
+      <c r="C27" s="60" t="s">
         <v>90</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>95</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
+      <c r="C31" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -6752,8 +6927,8 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="59" t="s">
-        <v>92</v>
+      <c r="C33" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -6782,8 +6957,8 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="60" t="s">
-        <v>93</v>
+      <c r="C35" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -6795,8 +6970,8 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="60" t="s">
-        <v>94</v>
+      <c r="C36" s="63" t="s">
+        <v>99</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -6820,7 +6995,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="11"/>
@@ -6843,77 +7018,77 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="61" t="s">
+      <c r="C40" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="65"/>
+    </row>
+    <row r="42" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="65"/>
+    </row>
+    <row r="43" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="65"/>
+    </row>
+    <row r="44" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="62"/>
-    </row>
-    <row r="42" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="62"/>
-    </row>
-    <row r="43" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="62"/>
-    </row>
-    <row r="44" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="62"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="13"/>
@@ -6927,8 +7102,8 @@
       <c r="K45" s="5"/>
     </row>
     <row r="46" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="59" t="s">
-        <v>92</v>
+      <c r="C46" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -6957,8 +7132,8 @@
       <c r="K47" s="5"/>
     </row>
     <row r="48" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="63" t="s">
-        <v>102</v>
+      <c r="C48" s="66" t="s">
+        <v>107</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -6970,8 +7145,8 @@
       <c r="K48" s="5"/>
     </row>
     <row r="49" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="63" t="s">
-        <v>103</v>
+      <c r="C49" s="66" t="s">
+        <v>108</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -7051,7 +7226,7 @@
     <row r="56" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="64"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
@@ -7106,7 +7281,7 @@
     <row r="61" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
-      <c r="E61" s="64"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
@@ -7115,7 +7290,7 @@
       <c r="K61" s="5"/>
     </row>
     <row r="62" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="34"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="16"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16"/>
@@ -7126,9 +7301,9 @@
       <c r="K62" s="5"/>
     </row>
     <row r="63" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
@@ -7215,7 +7390,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7456,7 +7631,7 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="65"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -7469,7 +7644,7 @@
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="65"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -7482,7 +7657,7 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="65"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -7495,7 +7670,7 @@
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="65"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -7508,7 +7683,7 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="65"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="7"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -7521,7 +7696,7 @@
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="65"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="7"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -7534,7 +7709,7 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="65"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -7547,7 +7722,7 @@
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="65"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -7560,7 +7735,7 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="65"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -7573,7 +7748,7 @@
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="65"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -7586,7 +7761,7 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="65"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -7599,7 +7774,7 @@
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="65"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -7626,9 +7801,9 @@
     </row>
     <row r="30" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D30" s="29"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -7640,10 +7815,10 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="27"/>
+      <c r="C31" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="29"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -7655,10 +7830,10 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="27"/>
+      <c r="C32" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="29"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7671,9 +7846,9 @@
     </row>
     <row r="33" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="D33" s="29"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -7685,10 +7860,10 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="27"/>
+      <c r="C34" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="29"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -7701,7 +7876,7 @@
     </row>
     <row r="35" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="13"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -7714,7 +7889,7 @@
     </row>
     <row r="36" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="13"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -7727,7 +7902,7 @@
     </row>
     <row r="37" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="13"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -7740,7 +7915,7 @@
     </row>
     <row r="38" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="13"/>
-      <c r="D38" s="27"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -7818,7 +7993,7 @@
     </row>
     <row r="44" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15"/>
-      <c r="D44" s="27"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -7831,25 +8006,25 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="7"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -7860,9 +8035,9 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -7873,9 +8048,9 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -7886,9 +8061,9 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -7899,9 +8074,9 @@
       <c r="D50" s="25"/>
       <c r="E50" s="26"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -7909,7 +8084,7 @@
     </row>
     <row r="51" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="12"/>
-      <c r="D51" s="27"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -7922,7 +8097,7 @@
     </row>
     <row r="52" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="12"/>
-      <c r="D52" s="27"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -7935,7 +8110,7 @@
     </row>
     <row r="53" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="13"/>
-      <c r="D53" s="27"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -7948,7 +8123,7 @@
     </row>
     <row r="54" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="13"/>
-      <c r="D54" s="27"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -7961,7 +8136,7 @@
     </row>
     <row r="55" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="13"/>
-      <c r="D55" s="27"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -7974,7 +8149,7 @@
     </row>
     <row r="56" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="13"/>
-      <c r="D56" s="27"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -7987,7 +8162,7 @@
     </row>
     <row r="57" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="13"/>
-      <c r="D57" s="27"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -8000,7 +8175,7 @@
     </row>
     <row r="58" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="13"/>
-      <c r="D58" s="27"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -8013,7 +8188,7 @@
     </row>
     <row r="59" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="13"/>
-      <c r="D59" s="27"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -8026,7 +8201,7 @@
     </row>
     <row r="60" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="13"/>
-      <c r="D60" s="27"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -8039,7 +8214,7 @@
     </row>
     <row r="61" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="13"/>
-      <c r="D61" s="27"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -8052,7 +8227,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="13"/>
-      <c r="D62" s="27"/>
+      <c r="D62" s="29"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -8065,7 +8240,7 @@
     </row>
     <row r="63" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="13"/>
-      <c r="D63" s="27"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -8086,8 +8261,8 @@
       <c r="E64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="69" t="s">
-        <v>110</v>
+      <c r="F64" s="72" t="s">
+        <v>115</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -8099,7 +8274,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -8114,14 +8289,14 @@
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -8129,14 +8304,14 @@
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -8144,7 +8319,7 @@
     </row>
     <row r="68" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="13"/>
-      <c r="D68" s="27"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
